--- a/2022/Realme/January/18.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/18.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -2417,6 +2417,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,12 +2460,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3981,9 +3981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3995,67 +3995,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="247"/>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
     </row>
     <row r="2" spans="1:24" s="103" customFormat="1" ht="18">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
     </row>
     <row r="3" spans="1:24" s="104" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="251"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4064,10 +4064,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="106" customFormat="1">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="256" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="243" t="s">
@@ -4103,13 +4103,13 @@
       <c r="M4" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="245" t="s">
+      <c r="N4" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="258" t="s">
+      <c r="O4" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="258" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="105" t="s">
@@ -4122,8 +4122,8 @@
       <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="253"/>
-      <c r="B5" s="255"/>
+      <c r="A5" s="255"/>
+      <c r="B5" s="257"/>
       <c r="C5" s="244"/>
       <c r="D5" s="244"/>
       <c r="E5" s="244"/>
@@ -4135,9 +4135,9 @@
       <c r="K5" s="244"/>
       <c r="L5" s="244"/>
       <c r="M5" s="244"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="259"/>
-      <c r="P5" s="257"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="259"/>
       <c r="Q5" s="110" t="s">
         <v>36</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H21" s="123"/>
       <c r="I21" s="123">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J21" s="123">
         <v>160</v>
@@ -4733,7 +4733,7 @@
       <c r="P21" s="125"/>
       <c r="Q21" s="119">
         <f t="shared" si="0"/>
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="R21" s="120"/>
       <c r="S21" s="4"/>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I37" s="141">
         <f t="shared" si="1"/>
-        <v>2120</v>
+        <v>2140</v>
       </c>
       <c r="J37" s="141">
         <f t="shared" si="1"/>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="Q37" s="143">
         <f>SUM(Q6:Q36)</f>
-        <v>18040</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7169,12 +7169,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7188,6 +7182,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15929,7 +15929,7 @@
   </sheetPr>
   <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
